--- a/src/analysis_examples/circadb/results_lomb/cosinor_10357535_pfkfb2_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10357535_pfkfb2_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.269654813375607, 0.381281308079548]</t>
+          <t>[0.26998265202338595, 0.38095346943176905]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>5.99507110621289e-11</v>
+        <v>5.375988543221411e-11</v>
       </c>
       <c r="N2" t="n">
-        <v>5.99507110621289e-11</v>
+        <v>5.375988543221411e-11</v>
       </c>
       <c r="O2" t="n">
         <v>-0.5660527303765397</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.7421580242714629, -0.38994743648161645]</t>
+          <t>[-0.7295790747075408, -0.4025263860455386]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.291000163661238e-06</v>
+        <v>4.283450834030589e-07</v>
       </c>
       <c r="R2" t="n">
-        <v>1.291000163661238e-06</v>
+        <v>4.283450834030589e-07</v>
       </c>
       <c r="S2" t="n">
         <v>0.4115747279688752</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3824068051418901, 0.44074265079586034]</t>
+          <t>[0.38240948714222356, 0.4407399687955269]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>2.263963963964038</v>
       </c>
       <c r="X2" t="n">
-        <v>1.559619619619671</v>
+        <v>1.609929929929979</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.968308308308404</v>
+        <v>2.917997997998096</v>
       </c>
     </row>
   </sheetData>
